--- a/Data Quisioner ALL 2021.xlsx
+++ b/Data Quisioner ALL 2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>No</t>
   </si>
@@ -408,6 +408,315 @@
   </si>
   <si>
     <t>signatureImage/60f9a00c4087e.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa288ace19f.png</t>
+  </si>
+  <si>
+    <t>Gilang</t>
+  </si>
+  <si>
+    <t>Teknisi Listrik</t>
+  </si>
+  <si>
+    <t>Zay</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa30b6c9ae1.png</t>
+  </si>
+  <si>
+    <t>Rere</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa30e8bc41d.png</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>Sakura</t>
+  </si>
+  <si>
+    <t>Nana</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa312c72e68.png</t>
+  </si>
+  <si>
+    <t>Naya</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa315550332.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa31809406f.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa31a99f63e.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa31e25d04a.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa327b422f9.png</t>
+  </si>
+  <si>
+    <t>Indro</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa32c2aa166.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa32f8912da.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa33750f260.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa34252c640.png</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa344071408.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa345fcd59f.png</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa34843fa80.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa3645c2ebb.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa36674dcc1.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa36856676a.png</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa36ea96843.png</t>
+  </si>
+  <si>
+    <t>2021-08-28</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa37092aa68.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa37285ce20.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa377e34449.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa37b16c20c.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa3953b6223.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa39727035d.png</t>
+  </si>
+  <si>
+    <t>2021-08-06</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa399ca8273.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa39c55ce05.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa3a1646f74.png</t>
+  </si>
+  <si>
+    <t>2021-08-20</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa3e020778a.png</t>
+  </si>
+  <si>
+    <t>2021-07-27</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa3e21b8b2b.png</t>
+  </si>
+  <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa3e3cb40a9.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa3eb470b2b.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa3f3c1a5d7.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa3f7117921.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa3f9a1502b.png</t>
+  </si>
+  <si>
+    <t>2021-07-20</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa3fb7aba54.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa45c6a59ca.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa45e9c22b1.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa461904e1c.png</t>
+  </si>
+  <si>
+    <t>2021-07-21</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa4640b9d90.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa4661c3902.png</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa476dd1b20.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa478c39826.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa47a48e410.png</t>
+  </si>
+  <si>
+    <t>nina</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa48c080758.png</t>
+  </si>
+  <si>
+    <t>Nani</t>
+  </si>
+  <si>
+    <t>Sekretaris</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa48e4adf42.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa49a4c61a0.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa4b1fc043c.png</t>
+  </si>
+  <si>
+    <t>2021-07-03</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa4b655d09d.png</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa4b8958b5a.png</t>
+  </si>
+  <si>
+    <t>Poli</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa4beb74862.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa4c17daae6.png</t>
+  </si>
+  <si>
+    <t>signatureImage/60fa4c349c5fb.png</t>
+  </si>
+  <si>
+    <t>PT. Abadi Jaya</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>IT engineer</t>
+  </si>
+  <si>
+    <t>Vivi</t>
+  </si>
+  <si>
+    <t>signatureImage/610a3be67602b.png</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>PT. 5macan</t>
+  </si>
+  <si>
+    <t>Rendi Kurniawan</t>
+  </si>
+  <si>
+    <t>web Engineer</t>
+  </si>
+  <si>
+    <t>Nico Gulo</t>
+  </si>
+  <si>
+    <t>signatureImage/610a579dc3d29.png</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>Wijang Setiyo Handoko</t>
+  </si>
+  <si>
+    <t>Staff Engineering</t>
+  </si>
+  <si>
+    <t>S2 Teknik Elektro</t>
+  </si>
+  <si>
+    <t>Dwi Purnomo</t>
+  </si>
+  <si>
+    <t>signatureImage/61206681e13aa.png</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>PT. PLN Persero</t>
+  </si>
+  <si>
+    <t>Fefi Elminaasari</t>
+  </si>
+  <si>
+    <t>Junior Engineer</t>
+  </si>
+  <si>
+    <t>Adheva Mayangsari</t>
+  </si>
+  <si>
+    <t>signatureImage/61206dd7830f5.png</t>
   </si>
 </sst>
 </file>
@@ -586,25 +895,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,25 +940,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,25 +985,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,25 +1030,25 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1425,15 +1734,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1780,7 +2089,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:AA86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="T19" sqref="T19:W19"/>
@@ -1792,7 +2101,7 @@
     <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="29.421387" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="56.557617" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="19.995117" bestFit="true" customWidth="true" style="0"/>
@@ -1804,7 +2113,7 @@
     <col min="14" max="14" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="72.982178" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="38.847656" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="36.419678" bestFit="true" customWidth="true" style="0"/>
@@ -1812,7 +2121,7 @@
     <col min="23" max="23" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="36.419678" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="18.709717" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:27">
@@ -1953,31 +2262,31 @@
       </c>
       <c r="U4" s="2">
         <f>AVERAGE(I:I)</f>
-        <v>3.52</v>
+        <v>3.2168674698795</v>
       </c>
       <c r="V4" s="2">
         <f>AVERAGE(J:J)</f>
-        <v>3.08</v>
+        <v>2.9277108433735</v>
       </c>
       <c r="W4" s="2">
         <f>AVERAGE(K:K)</f>
-        <v>2.68</v>
+        <v>2.8072289156627</v>
       </c>
       <c r="X4" s="2">
         <f>AVERAGE(L:L)</f>
-        <v>2.96</v>
+        <v>2.9518072289157</v>
       </c>
       <c r="Y4" s="2">
         <f>AVERAGE(M:M)</f>
-        <v>3</v>
+        <v>2.9397590361446</v>
       </c>
       <c r="Z4" s="2">
         <f>AVERAGE(N:N)</f>
-        <v>3.04</v>
+        <v>2.9518072289157</v>
       </c>
       <c r="AA4" s="1">
         <f>AVERAGE(O:O)</f>
-        <v>3.04</v>
+        <v>2.9879518072289</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -2362,19 +2671,19 @@
       </c>
       <c r="V10" s="2">
         <f>COUNTIF(I:I,"4")</f>
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="W10" s="2">
         <f>COUNTIF(I:I,"3")</f>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="X10" s="2">
         <f>COUNTIF(I:I,"2")</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Y10" s="2">
         <f>COUNTIF(I:I,"1")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z10" s="4"/>
     </row>
@@ -2438,19 +2747,19 @@
       </c>
       <c r="V11" s="2">
         <f>COUNTIF(J:J,"4")</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="W11" s="2">
         <f>COUNTIF(J:J,"3")</f>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="X11" s="2">
         <f>COUNTIF(J:J,"2")</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Y11" s="2">
         <f>COUNTIF(J:J,"1")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z11" s="4"/>
     </row>
@@ -2514,19 +2823,19 @@
       </c>
       <c r="V12" s="2">
         <f>COUNTIF(K:K,"4")</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="W12" s="2">
         <f>COUNTIF(K:K,"3")</f>
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="X12" s="2">
         <f>COUNTIF(K:K,"2")</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="Y12" s="2">
         <f>COUNTIF(K:K,"1")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z12" s="4"/>
     </row>
@@ -2590,19 +2899,19 @@
       </c>
       <c r="V13" s="2">
         <f>COUNTIF(L:L,"4")</f>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="W13" s="2">
         <f>COUNTIF(L:L,"3")</f>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="X13" s="2">
         <f>COUNTIF(L:L,"2")</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Y13" s="2">
         <f>COUNTIF(L:L,"1")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z13" s="4"/>
     </row>
@@ -2666,19 +2975,19 @@
       </c>
       <c r="V14" s="2">
         <f>COUNTIF(M:M,"4")</f>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="W14" s="2">
         <f>COUNTIF(M:M,"3")</f>
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="X14" s="2">
         <f>COUNTIF(M:M,"2")</f>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="Y14" s="2">
         <f>COUNTIF(M:M,"1")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="4"/>
     </row>
@@ -2742,19 +3051,19 @@
       </c>
       <c r="V15" s="2">
         <f>COUNTIF(N:N,"4")</f>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="W15" s="2">
         <f>COUNTIF(N:N,"3")</f>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="X15" s="2">
         <f>COUNTIF(N:N,"2")</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Y15" s="2">
         <f>COUNTIF(N:N,"1")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z15" s="4"/>
     </row>
@@ -2818,19 +3127,19 @@
       </c>
       <c r="V16" s="2">
         <f>COUNTIF(O:O,"4")</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="W16" s="2">
         <f>COUNTIF(O:O,"3")</f>
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="X16" s="2">
         <f>COUNTIF(O:O,"2")</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y16" s="2">
         <f>COUNTIF(O:O,"1")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z16" s="4"/>
     </row>
@@ -3085,15 +3394,15 @@
       </c>
       <c r="U20" s="2">
         <f>COUNTIF(H:H,"Tinggi")</f>
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="V20" s="2">
         <f>COUNTIF(H:H,"Sedang")</f>
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="W20" s="2">
         <f>COUNTIF(H:H,"Rendah")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -3594,6 +3903,3602 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3</v>
+      </c>
+      <c r="K29" s="2">
+        <v>3</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2</v>
+      </c>
+      <c r="M29" s="2">
+        <v>4</v>
+      </c>
+      <c r="N29" s="2">
+        <v>4</v>
+      </c>
+      <c r="O29" s="2">
+        <v>3</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3</v>
+      </c>
+      <c r="K30" s="2">
+        <v>4</v>
+      </c>
+      <c r="L30" s="2">
+        <v>3</v>
+      </c>
+      <c r="M30" s="2">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2">
+        <v>3</v>
+      </c>
+      <c r="O30" s="2">
+        <v>3</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="2">
+        <v>4</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3</v>
+      </c>
+      <c r="K31" s="2">
+        <v>3</v>
+      </c>
+      <c r="L31" s="2">
+        <v>4</v>
+      </c>
+      <c r="M31" s="2">
+        <v>4</v>
+      </c>
+      <c r="N31" s="2">
+        <v>3</v>
+      </c>
+      <c r="O31" s="2">
+        <v>3</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3</v>
+      </c>
+      <c r="N32" s="2">
+        <v>3</v>
+      </c>
+      <c r="O32" s="2">
+        <v>4</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+      <c r="K34" s="2">
+        <v>2</v>
+      </c>
+      <c r="L34" s="2">
+        <v>2</v>
+      </c>
+      <c r="M34" s="2">
+        <v>2</v>
+      </c>
+      <c r="N34" s="2">
+        <v>2</v>
+      </c>
+      <c r="O34" s="2">
+        <v>2</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="2">
+        <v>3</v>
+      </c>
+      <c r="J35" s="2">
+        <v>3</v>
+      </c>
+      <c r="K35" s="2">
+        <v>3</v>
+      </c>
+      <c r="L35" s="2">
+        <v>4</v>
+      </c>
+      <c r="M35" s="2">
+        <v>4</v>
+      </c>
+      <c r="N35" s="2">
+        <v>4</v>
+      </c>
+      <c r="O35" s="2">
+        <v>3</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="2">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2">
+        <v>4</v>
+      </c>
+      <c r="K36" s="2">
+        <v>4</v>
+      </c>
+      <c r="L36" s="2">
+        <v>4</v>
+      </c>
+      <c r="M36" s="2">
+        <v>4</v>
+      </c>
+      <c r="N36" s="2">
+        <v>4</v>
+      </c>
+      <c r="O36" s="2">
+        <v>4</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="2">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2">
+        <v>4</v>
+      </c>
+      <c r="K37" s="2">
+        <v>3</v>
+      </c>
+      <c r="L37" s="2">
+        <v>3</v>
+      </c>
+      <c r="M37" s="2">
+        <v>3</v>
+      </c>
+      <c r="N37" s="2">
+        <v>4</v>
+      </c>
+      <c r="O37" s="2">
+        <v>3</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="2">
+        <v>3</v>
+      </c>
+      <c r="J38" s="2">
+        <v>3</v>
+      </c>
+      <c r="K38" s="2">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2">
+        <v>4</v>
+      </c>
+      <c r="M38" s="2">
+        <v>4</v>
+      </c>
+      <c r="N38" s="2">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>2</v>
+      </c>
+      <c r="L39" s="2">
+        <v>3</v>
+      </c>
+      <c r="M39" s="2">
+        <v>2</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>3</v>
+      </c>
+      <c r="L40" s="2">
+        <v>3</v>
+      </c>
+      <c r="M40" s="2">
+        <v>2</v>
+      </c>
+      <c r="N40" s="2">
+        <v>2</v>
+      </c>
+      <c r="O40" s="2">
+        <v>3</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2</v>
+      </c>
+      <c r="K41" s="2">
+        <v>2</v>
+      </c>
+      <c r="L41" s="2">
+        <v>2</v>
+      </c>
+      <c r="M41" s="2">
+        <v>2</v>
+      </c>
+      <c r="N41" s="2">
+        <v>2</v>
+      </c>
+      <c r="O41" s="2">
+        <v>2</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="2">
+        <v>3</v>
+      </c>
+      <c r="J43" s="2">
+        <v>3</v>
+      </c>
+      <c r="K43" s="2">
+        <v>4</v>
+      </c>
+      <c r="L43" s="2">
+        <v>3</v>
+      </c>
+      <c r="M43" s="2">
+        <v>3</v>
+      </c>
+      <c r="N43" s="2">
+        <v>3</v>
+      </c>
+      <c r="O43" s="2">
+        <v>4</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2</v>
+      </c>
+      <c r="L44" s="2">
+        <v>3</v>
+      </c>
+      <c r="M44" s="2">
+        <v>3</v>
+      </c>
+      <c r="N44" s="2">
+        <v>3</v>
+      </c>
+      <c r="O44" s="2">
+        <v>3</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="2">
+        <v>3</v>
+      </c>
+      <c r="J45" s="2">
+        <v>3</v>
+      </c>
+      <c r="K45" s="2">
+        <v>3</v>
+      </c>
+      <c r="L45" s="2">
+        <v>3</v>
+      </c>
+      <c r="M45" s="2">
+        <v>3</v>
+      </c>
+      <c r="N45" s="2">
+        <v>3</v>
+      </c>
+      <c r="O45" s="2">
+        <v>3</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>3</v>
+      </c>
+      <c r="K46" s="2">
+        <v>2</v>
+      </c>
+      <c r="L46" s="2">
+        <v>2</v>
+      </c>
+      <c r="M46" s="2">
+        <v>2</v>
+      </c>
+      <c r="N46" s="2">
+        <v>3</v>
+      </c>
+      <c r="O46" s="2">
+        <v>3</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+      <c r="K47" s="2">
+        <v>3</v>
+      </c>
+      <c r="L47" s="2">
+        <v>3</v>
+      </c>
+      <c r="M47" s="2">
+        <v>3</v>
+      </c>
+      <c r="N47" s="2">
+        <v>3</v>
+      </c>
+      <c r="O47" s="2">
+        <v>3</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="2">
+        <v>4</v>
+      </c>
+      <c r="J48" s="2">
+        <v>3</v>
+      </c>
+      <c r="K48" s="2">
+        <v>3</v>
+      </c>
+      <c r="L48" s="2">
+        <v>4</v>
+      </c>
+      <c r="M48" s="2">
+        <v>3</v>
+      </c>
+      <c r="N48" s="2">
+        <v>3</v>
+      </c>
+      <c r="O48" s="2">
+        <v>3</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="2">
+        <v>3</v>
+      </c>
+      <c r="J49" s="2">
+        <v>3</v>
+      </c>
+      <c r="K49" s="2">
+        <v>3</v>
+      </c>
+      <c r="L49" s="2">
+        <v>3</v>
+      </c>
+      <c r="M49" s="2">
+        <v>3</v>
+      </c>
+      <c r="N49" s="2">
+        <v>3</v>
+      </c>
+      <c r="O49" s="2">
+        <v>3</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2</v>
+      </c>
+      <c r="J50" s="2">
+        <v>3</v>
+      </c>
+      <c r="K50" s="2">
+        <v>3</v>
+      </c>
+      <c r="L50" s="2">
+        <v>2</v>
+      </c>
+      <c r="M50" s="2">
+        <v>2</v>
+      </c>
+      <c r="N50" s="2">
+        <v>2</v>
+      </c>
+      <c r="O50" s="2">
+        <v>3</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="2">
+        <v>4</v>
+      </c>
+      <c r="J51" s="2">
+        <v>3</v>
+      </c>
+      <c r="K51" s="2">
+        <v>3</v>
+      </c>
+      <c r="L51" s="2">
+        <v>4</v>
+      </c>
+      <c r="M51" s="2">
+        <v>3</v>
+      </c>
+      <c r="N51" s="2">
+        <v>3</v>
+      </c>
+      <c r="O51" s="2">
+        <v>2</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" s="2">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="2">
+        <v>4</v>
+      </c>
+      <c r="J52" s="2">
+        <v>4</v>
+      </c>
+      <c r="K52" s="2">
+        <v>4</v>
+      </c>
+      <c r="L52" s="2">
+        <v>4</v>
+      </c>
+      <c r="M52" s="2">
+        <v>4</v>
+      </c>
+      <c r="N52" s="2">
+        <v>4</v>
+      </c>
+      <c r="O52" s="2">
+        <v>4</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="2">
+        <v>3</v>
+      </c>
+      <c r="J53" s="2">
+        <v>3</v>
+      </c>
+      <c r="K53" s="2">
+        <v>3</v>
+      </c>
+      <c r="L53" s="2">
+        <v>3</v>
+      </c>
+      <c r="M53" s="2">
+        <v>3</v>
+      </c>
+      <c r="N53" s="2">
+        <v>3</v>
+      </c>
+      <c r="O53" s="2">
+        <v>3</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="2">
+        <v>4</v>
+      </c>
+      <c r="J54" s="2">
+        <v>3</v>
+      </c>
+      <c r="K54" s="2">
+        <v>3</v>
+      </c>
+      <c r="L54" s="2">
+        <v>4</v>
+      </c>
+      <c r="M54" s="2">
+        <v>4</v>
+      </c>
+      <c r="N54" s="2">
+        <v>3</v>
+      </c>
+      <c r="O54" s="2">
+        <v>3</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55" s="2">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2</v>
+      </c>
+      <c r="J55" s="2">
+        <v>2</v>
+      </c>
+      <c r="K55" s="2">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
+        <v>2</v>
+      </c>
+      <c r="M55" s="2">
+        <v>2</v>
+      </c>
+      <c r="N55" s="2">
+        <v>2</v>
+      </c>
+      <c r="O55" s="2">
+        <v>2</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="A56" s="2">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="2">
+        <v>3</v>
+      </c>
+      <c r="J56" s="2">
+        <v>3</v>
+      </c>
+      <c r="K56" s="2">
+        <v>3</v>
+      </c>
+      <c r="L56" s="2">
+        <v>3</v>
+      </c>
+      <c r="M56" s="2">
+        <v>3</v>
+      </c>
+      <c r="N56" s="2">
+        <v>3</v>
+      </c>
+      <c r="O56" s="2">
+        <v>4</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" s="2">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="2">
+        <v>4</v>
+      </c>
+      <c r="J57" s="2">
+        <v>3</v>
+      </c>
+      <c r="K57" s="2">
+        <v>3</v>
+      </c>
+      <c r="L57" s="2">
+        <v>2</v>
+      </c>
+      <c r="M57" s="2">
+        <v>3</v>
+      </c>
+      <c r="N57" s="2">
+        <v>3</v>
+      </c>
+      <c r="O57" s="2">
+        <v>3</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="2">
+        <v>3</v>
+      </c>
+      <c r="J58" s="2">
+        <v>3</v>
+      </c>
+      <c r="K58" s="2">
+        <v>3</v>
+      </c>
+      <c r="L58" s="2">
+        <v>4</v>
+      </c>
+      <c r="M58" s="2">
+        <v>4</v>
+      </c>
+      <c r="N58" s="2">
+        <v>3</v>
+      </c>
+      <c r="O58" s="2">
+        <v>3</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" s="2">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="2">
+        <v>4</v>
+      </c>
+      <c r="J59" s="2">
+        <v>3</v>
+      </c>
+      <c r="K59" s="2">
+        <v>3</v>
+      </c>
+      <c r="L59" s="2">
+        <v>2</v>
+      </c>
+      <c r="M59" s="2">
+        <v>2</v>
+      </c>
+      <c r="N59" s="2">
+        <v>3</v>
+      </c>
+      <c r="O59" s="2">
+        <v>3</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="A60" s="2">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="2">
+        <v>3</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3</v>
+      </c>
+      <c r="K60" s="2">
+        <v>3</v>
+      </c>
+      <c r="L60" s="2">
+        <v>3</v>
+      </c>
+      <c r="M60" s="2">
+        <v>3</v>
+      </c>
+      <c r="N60" s="2">
+        <v>3</v>
+      </c>
+      <c r="O60" s="2">
+        <v>3</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="A61" s="2">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="2">
+        <v>4</v>
+      </c>
+      <c r="J61" s="2">
+        <v>3</v>
+      </c>
+      <c r="K61" s="2">
+        <v>3</v>
+      </c>
+      <c r="L61" s="2">
+        <v>3</v>
+      </c>
+      <c r="M61" s="2">
+        <v>3</v>
+      </c>
+      <c r="N61" s="2">
+        <v>3</v>
+      </c>
+      <c r="O61" s="2">
+        <v>4</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="A62" s="2">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="2">
+        <v>4</v>
+      </c>
+      <c r="J62" s="2">
+        <v>3</v>
+      </c>
+      <c r="K62" s="2">
+        <v>3</v>
+      </c>
+      <c r="L62" s="2">
+        <v>3</v>
+      </c>
+      <c r="M62" s="2">
+        <v>4</v>
+      </c>
+      <c r="N62" s="2">
+        <v>4</v>
+      </c>
+      <c r="O62" s="2">
+        <v>3</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="A63" s="2">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="2">
+        <v>3</v>
+      </c>
+      <c r="J63" s="2">
+        <v>3</v>
+      </c>
+      <c r="K63" s="2">
+        <v>3</v>
+      </c>
+      <c r="L63" s="2">
+        <v>4</v>
+      </c>
+      <c r="M63" s="2">
+        <v>4</v>
+      </c>
+      <c r="N63" s="2">
+        <v>4</v>
+      </c>
+      <c r="O63" s="2">
+        <v>3</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="A64" s="2">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="2">
+        <v>3</v>
+      </c>
+      <c r="J64" s="2">
+        <v>3</v>
+      </c>
+      <c r="K64" s="2">
+        <v>3</v>
+      </c>
+      <c r="L64" s="2">
+        <v>3</v>
+      </c>
+      <c r="M64" s="2">
+        <v>3</v>
+      </c>
+      <c r="N64" s="2">
+        <v>3</v>
+      </c>
+      <c r="O64" s="2">
+        <v>3</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="A65" s="2">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="2">
+        <v>2</v>
+      </c>
+      <c r="J65" s="2">
+        <v>2</v>
+      </c>
+      <c r="K65" s="2">
+        <v>2</v>
+      </c>
+      <c r="L65" s="2">
+        <v>2</v>
+      </c>
+      <c r="M65" s="2">
+        <v>2</v>
+      </c>
+      <c r="N65" s="2">
+        <v>2</v>
+      </c>
+      <c r="O65" s="2">
+        <v>2</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+    </row>
+    <row r="66" spans="1:27">
+      <c r="A66" s="2">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I66" s="2">
+        <v>3</v>
+      </c>
+      <c r="J66" s="2">
+        <v>3</v>
+      </c>
+      <c r="K66" s="2">
+        <v>4</v>
+      </c>
+      <c r="L66" s="2">
+        <v>3</v>
+      </c>
+      <c r="M66" s="2">
+        <v>2</v>
+      </c>
+      <c r="N66" s="2">
+        <v>3</v>
+      </c>
+      <c r="O66" s="2">
+        <v>3</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+    </row>
+    <row r="67" spans="1:27">
+      <c r="A67" s="2">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="2">
+        <v>2</v>
+      </c>
+      <c r="J67" s="2">
+        <v>2</v>
+      </c>
+      <c r="K67" s="2">
+        <v>2</v>
+      </c>
+      <c r="L67" s="2">
+        <v>2</v>
+      </c>
+      <c r="M67" s="2">
+        <v>2</v>
+      </c>
+      <c r="N67" s="2">
+        <v>2</v>
+      </c>
+      <c r="O67" s="2">
+        <v>2</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+    </row>
+    <row r="68" spans="1:27">
+      <c r="A68" s="2">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="2">
+        <v>4</v>
+      </c>
+      <c r="J68" s="2">
+        <v>4</v>
+      </c>
+      <c r="K68" s="2">
+        <v>4</v>
+      </c>
+      <c r="L68" s="2">
+        <v>4</v>
+      </c>
+      <c r="M68" s="2">
+        <v>4</v>
+      </c>
+      <c r="N68" s="2">
+        <v>4</v>
+      </c>
+      <c r="O68" s="2">
+        <v>4</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="A69" s="2">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="2">
+        <v>3</v>
+      </c>
+      <c r="J69" s="2">
+        <v>3</v>
+      </c>
+      <c r="K69" s="2">
+        <v>3</v>
+      </c>
+      <c r="L69" s="2">
+        <v>3</v>
+      </c>
+      <c r="M69" s="2">
+        <v>3</v>
+      </c>
+      <c r="N69" s="2">
+        <v>3</v>
+      </c>
+      <c r="O69" s="2">
+        <v>3</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="A70" s="2">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="2">
+        <v>4</v>
+      </c>
+      <c r="J70" s="2">
+        <v>4</v>
+      </c>
+      <c r="K70" s="2">
+        <v>4</v>
+      </c>
+      <c r="L70" s="2">
+        <v>4</v>
+      </c>
+      <c r="M70" s="2">
+        <v>4</v>
+      </c>
+      <c r="N70" s="2">
+        <v>4</v>
+      </c>
+      <c r="O70" s="2">
+        <v>4</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="A71" s="2">
+        <v>68</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="2">
+        <v>4</v>
+      </c>
+      <c r="J71" s="2">
+        <v>3</v>
+      </c>
+      <c r="K71" s="2">
+        <v>2</v>
+      </c>
+      <c r="L71" s="2">
+        <v>3</v>
+      </c>
+      <c r="M71" s="2">
+        <v>4</v>
+      </c>
+      <c r="N71" s="2">
+        <v>4</v>
+      </c>
+      <c r="O71" s="2">
+        <v>4</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+    </row>
+    <row r="72" spans="1:27">
+      <c r="A72" s="2">
+        <v>69</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="2">
+        <v>2</v>
+      </c>
+      <c r="J72" s="2">
+        <v>2</v>
+      </c>
+      <c r="K72" s="2">
+        <v>2</v>
+      </c>
+      <c r="L72" s="2">
+        <v>2</v>
+      </c>
+      <c r="M72" s="2">
+        <v>2</v>
+      </c>
+      <c r="N72" s="2">
+        <v>2</v>
+      </c>
+      <c r="O72" s="2">
+        <v>2</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+    </row>
+    <row r="73" spans="1:27">
+      <c r="A73" s="2">
+        <v>70</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" s="2">
+        <v>4</v>
+      </c>
+      <c r="J73" s="2">
+        <v>4</v>
+      </c>
+      <c r="K73" s="2">
+        <v>4</v>
+      </c>
+      <c r="L73" s="2">
+        <v>4</v>
+      </c>
+      <c r="M73" s="2">
+        <v>4</v>
+      </c>
+      <c r="N73" s="2">
+        <v>4</v>
+      </c>
+      <c r="O73" s="2">
+        <v>4</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="A74" s="2">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="2">
+        <v>3</v>
+      </c>
+      <c r="J74" s="2">
+        <v>3</v>
+      </c>
+      <c r="K74" s="2">
+        <v>3</v>
+      </c>
+      <c r="L74" s="2">
+        <v>3</v>
+      </c>
+      <c r="M74" s="2">
+        <v>3</v>
+      </c>
+      <c r="N74" s="2">
+        <v>3</v>
+      </c>
+      <c r="O74" s="2">
+        <v>4</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="A75" s="2">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I75" s="2">
+        <v>2</v>
+      </c>
+      <c r="J75" s="2">
+        <v>2</v>
+      </c>
+      <c r="K75" s="2">
+        <v>2</v>
+      </c>
+      <c r="L75" s="2">
+        <v>2</v>
+      </c>
+      <c r="M75" s="2">
+        <v>2</v>
+      </c>
+      <c r="N75" s="2">
+        <v>2</v>
+      </c>
+      <c r="O75" s="2">
+        <v>2</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+    </row>
+    <row r="76" spans="1:27">
+      <c r="A76" s="2">
+        <v>73</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" s="2">
+        <v>3</v>
+      </c>
+      <c r="J76" s="2">
+        <v>3</v>
+      </c>
+      <c r="K76" s="2">
+        <v>3</v>
+      </c>
+      <c r="L76" s="2">
+        <v>4</v>
+      </c>
+      <c r="M76" s="2">
+        <v>4</v>
+      </c>
+      <c r="N76" s="2">
+        <v>3</v>
+      </c>
+      <c r="O76" s="2">
+        <v>3</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+    </row>
+    <row r="77" spans="1:27">
+      <c r="A77" s="2">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" s="2">
+        <v>4</v>
+      </c>
+      <c r="J77" s="2">
+        <v>3</v>
+      </c>
+      <c r="K77" s="2">
+        <v>3</v>
+      </c>
+      <c r="L77" s="2">
+        <v>3</v>
+      </c>
+      <c r="M77" s="2">
+        <v>3</v>
+      </c>
+      <c r="N77" s="2">
+        <v>4</v>
+      </c>
+      <c r="O77" s="2">
+        <v>4</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+    </row>
+    <row r="78" spans="1:27">
+      <c r="A78" s="2">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" s="2">
+        <v>4</v>
+      </c>
+      <c r="J78" s="2">
+        <v>3</v>
+      </c>
+      <c r="K78" s="2">
+        <v>3</v>
+      </c>
+      <c r="L78" s="2">
+        <v>4</v>
+      </c>
+      <c r="M78" s="2">
+        <v>4</v>
+      </c>
+      <c r="N78" s="2">
+        <v>3</v>
+      </c>
+      <c r="O78" s="2">
+        <v>3</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="A79" s="2">
+        <v>76</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I79" s="2">
+        <v>3</v>
+      </c>
+      <c r="J79" s="2">
+        <v>3</v>
+      </c>
+      <c r="K79" s="2">
+        <v>3</v>
+      </c>
+      <c r="L79" s="2">
+        <v>3</v>
+      </c>
+      <c r="M79" s="2">
+        <v>3</v>
+      </c>
+      <c r="N79" s="2">
+        <v>3</v>
+      </c>
+      <c r="O79" s="2">
+        <v>3</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+    </row>
+    <row r="80" spans="1:27">
+      <c r="A80" s="2">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" s="2">
+        <v>4</v>
+      </c>
+      <c r="J80" s="2">
+        <v>3</v>
+      </c>
+      <c r="K80" s="2">
+        <v>2</v>
+      </c>
+      <c r="L80" s="2">
+        <v>2</v>
+      </c>
+      <c r="M80" s="2">
+        <v>2</v>
+      </c>
+      <c r="N80" s="2">
+        <v>2</v>
+      </c>
+      <c r="O80" s="2">
+        <v>2</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+    </row>
+    <row r="81" spans="1:27">
+      <c r="A81" s="2">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="2">
+        <v>4</v>
+      </c>
+      <c r="J81" s="2">
+        <v>4</v>
+      </c>
+      <c r="K81" s="2">
+        <v>3</v>
+      </c>
+      <c r="L81" s="2">
+        <v>3</v>
+      </c>
+      <c r="M81" s="2">
+        <v>3</v>
+      </c>
+      <c r="N81" s="2">
+        <v>3</v>
+      </c>
+      <c r="O81" s="2">
+        <v>3</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+    </row>
+    <row r="82" spans="1:27">
+      <c r="A82" s="2">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" s="2">
+        <v>4</v>
+      </c>
+      <c r="J82" s="2">
+        <v>3</v>
+      </c>
+      <c r="K82" s="2">
+        <v>3</v>
+      </c>
+      <c r="L82" s="2">
+        <v>2</v>
+      </c>
+      <c r="M82" s="2">
+        <v>2</v>
+      </c>
+      <c r="N82" s="2">
+        <v>1</v>
+      </c>
+      <c r="O82" s="2">
+        <v>2</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+    </row>
+    <row r="83" spans="1:27">
+      <c r="A83" s="2">
+        <v>80</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" s="2">
+        <v>4</v>
+      </c>
+      <c r="J83" s="2">
+        <v>3</v>
+      </c>
+      <c r="K83" s="2">
+        <v>3</v>
+      </c>
+      <c r="L83" s="2">
+        <v>3</v>
+      </c>
+      <c r="M83" s="2">
+        <v>3</v>
+      </c>
+      <c r="N83" s="2">
+        <v>3</v>
+      </c>
+      <c r="O83" s="2">
+        <v>3</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" s="2">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="2">
+        <v>3</v>
+      </c>
+      <c r="J84" s="2">
+        <v>3</v>
+      </c>
+      <c r="K84" s="2">
+        <v>2</v>
+      </c>
+      <c r="L84" s="2">
+        <v>2</v>
+      </c>
+      <c r="M84" s="2">
+        <v>2</v>
+      </c>
+      <c r="N84" s="2">
+        <v>3</v>
+      </c>
+      <c r="O84" s="2">
+        <v>3</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+    </row>
+    <row r="85" spans="1:27">
+      <c r="A85" s="2">
+        <v>82</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" s="2">
+        <v>3</v>
+      </c>
+      <c r="J85" s="2">
+        <v>4</v>
+      </c>
+      <c r="K85" s="2">
+        <v>4</v>
+      </c>
+      <c r="L85" s="2">
+        <v>4</v>
+      </c>
+      <c r="M85" s="2">
+        <v>3</v>
+      </c>
+      <c r="N85" s="2">
+        <v>4</v>
+      </c>
+      <c r="O85" s="2">
+        <v>4</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+    </row>
+    <row r="86" spans="1:27">
+      <c r="A86" s="2">
+        <v>83</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="2">
+        <v>4</v>
+      </c>
+      <c r="J86" s="2">
+        <v>3</v>
+      </c>
+      <c r="K86" s="2">
+        <v>4</v>
+      </c>
+      <c r="L86" s="2">
+        <v>3</v>
+      </c>
+      <c r="M86" s="2">
+        <v>3</v>
+      </c>
+      <c r="N86" s="2">
+        <v>3</v>
+      </c>
+      <c r="O86" s="2">
+        <v>4</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
